--- a/data/Resources_sheet.xlsx
+++ b/data/Resources_sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Resource Name</t>
   </si>
@@ -86,15 +86,9 @@
     <t>AI</t>
   </si>
   <si>
-    <t>AI,DQ,DM</t>
-  </si>
-  <si>
     <t>DM,DQ</t>
   </si>
   <si>
-    <t>DG</t>
-  </si>
-  <si>
     <t>Akram</t>
   </si>
   <si>
@@ -110,7 +104,16 @@
     <t>Mohamed unassigned</t>
   </si>
   <si>
-    <t>BDM</t>
+    <t>AI Lead</t>
+  </si>
+  <si>
+    <t>AI,DQ,DM,Coordinator</t>
+  </si>
+  <si>
+    <t>DQ Lead,DM Lead,BDM</t>
+  </si>
+  <si>
+    <t>DG,DRM</t>
   </si>
 </sst>
 </file>
@@ -435,16 +438,16 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.54296875" customWidth="1"/>
     <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -452,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -478,7 +481,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -492,10 +495,10 @@
         <v>44197</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -509,10 +512,10 @@
         <v>44197</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -529,7 +532,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -597,7 +600,7 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -628,15 +631,15 @@
         <v>44197</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -648,12 +651,12 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -665,12 +668,12 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -679,10 +682,10 @@
         <v>44197</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/Resources_sheet.xlsx
+++ b/data/Resources_sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Resource Name</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>DG,DRM</t>
+  </si>
+  <si>
+    <t>DM,DQ,Coordinator</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,7 +688,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
